--- a/99_data-sets-raw/Eurostat/eurostat-total-percentage.xlsx
+++ b/99_data-sets-raw/Eurostat/eurostat-total-percentage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisapramann/R/IDS_Hertie_2021/97_Data_Science_Project/tourism-trends-covid/99_data-sets-raw/Eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043FFDCD-CF73-8F40-B145-6FB39AD84AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E25A86-A673-B641-9194-A61A5BA8DA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" xr2:uid="{0EE1C14A-431F-EA4F-A259-0E2AEF9C990E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>2020-01</t>
   </si>
@@ -634,7 +634,8 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,10 +773,10 @@
         <v>-29.16</v>
       </c>
       <c r="U2" s="3">
-        <v>-20.329999999999998</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>14</v>
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="V2" s="3">
+        <v>-11.89</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1250,8 +1251,8 @@
       <c r="U9" s="3">
         <v>-1.97</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>14</v>
+      <c r="V9" s="3">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1318,8 +1319,8 @@
       <c r="U10" s="5">
         <v>-29.2</v>
       </c>
-      <c r="V10" s="6" t="s">
-        <v>14</v>
+      <c r="V10" s="5">
+        <v>-27.81</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1454,8 +1455,8 @@
       <c r="U12" s="5">
         <v>-32.119999999999997</v>
       </c>
-      <c r="V12" s="6" t="s">
-        <v>14</v>
+      <c r="V12" s="5">
+        <v>-27.5</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1724,10 +1725,10 @@
         <v>-21.78</v>
       </c>
       <c r="U16" s="5">
-        <v>-8.9</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>14</v>
+        <v>-9.1300000000000008</v>
+      </c>
+      <c r="V16" s="5">
+        <v>-10.86</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -1859,10 +1860,10 @@
       <c r="T18" s="5">
         <v>-42.39</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="3">
         <v>-39.65</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="3">
         <v>-42.6</v>
       </c>
     </row>
@@ -1927,11 +1928,11 @@
       <c r="T19" s="3">
         <v>-18.77</v>
       </c>
-      <c r="U19" s="3">
-        <v>-19.55</v>
-      </c>
-      <c r="V19" s="3">
-        <v>-27.4</v>
+      <c r="U19" s="5">
+        <v>-21.26</v>
+      </c>
+      <c r="V19" s="5">
+        <v>-27.01</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -1995,11 +1996,11 @@
       <c r="T20" s="5">
         <v>-45.31</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="3">
         <v>-31.05</v>
       </c>
-      <c r="V20" s="5">
-        <v>-36.28</v>
+      <c r="V20" s="3">
+        <v>-33.69</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -2063,10 +2064,10 @@
       <c r="T21" s="3">
         <v>-35.65</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="5">
         <v>-23.76</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="5">
         <v>43.9</v>
       </c>
     </row>
@@ -2131,11 +2132,11 @@
       <c r="T22" s="5">
         <v>-42.98</v>
       </c>
-      <c r="U22" s="5">
-        <v>-31.9</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>14</v>
+      <c r="U22" s="3">
+        <v>-31.31</v>
+      </c>
+      <c r="V22" s="3">
+        <v>-23.12</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -2199,11 +2200,11 @@
       <c r="T23" s="3">
         <v>1.6</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="5">
         <v>3.19</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>14</v>
+      <c r="V23" s="5">
+        <v>3.25</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -2267,10 +2268,10 @@
       <c r="T24" s="5">
         <v>-18.23</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="3">
         <v>1.3</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="3">
         <v>0.64</v>
       </c>
     </row>
@@ -2335,10 +2336,10 @@
       <c r="T25" s="3">
         <v>-9.0500000000000007</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="5">
         <v>-5.7</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="5">
         <v>-7.01</v>
       </c>
     </row>
@@ -2403,10 +2404,10 @@
       <c r="T26" s="5">
         <v>-43.21</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="3">
         <v>-23.43</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="3">
         <v>-25.53</v>
       </c>
     </row>
@@ -2471,11 +2472,11 @@
       <c r="T27" s="3">
         <v>-16.38</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="5">
         <v>-11.2</v>
       </c>
-      <c r="V27" s="4" t="s">
-        <v>14</v>
+      <c r="V27" s="5">
+        <v>-21.08</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -2539,11 +2540,11 @@
       <c r="T28" s="5">
         <v>-10.55</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="3">
         <v>1.79</v>
       </c>
-      <c r="V28" s="6" t="s">
-        <v>14</v>
+      <c r="V28" s="3">
+        <v>11.96</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -2607,11 +2608,11 @@
       <c r="T29" s="3">
         <v>-22.34</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="5">
         <v>-19.47</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>14</v>
+      <c r="V29" s="5">
+        <v>-22.68</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -2675,10 +2676,10 @@
       <c r="T30" s="5">
         <v>2.1</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="3">
         <v>-14.66</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="3">
         <v>-12.46</v>
       </c>
     </row>
@@ -2743,10 +2744,10 @@
       <c r="T31" s="3">
         <v>-14.53</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="5">
         <v>-6.85</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="5">
         <v>-10.24</v>
       </c>
     </row>
@@ -2811,10 +2812,10 @@
       <c r="T32" s="5">
         <v>-16.809999999999999</v>
       </c>
-      <c r="U32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V32" s="6" t="s">
+      <c r="U32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V32" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2879,11 +2880,11 @@
       <c r="T33" s="3">
         <v>4.78</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="5">
         <v>5.9</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>14</v>
+      <c r="V33" s="5">
+        <v>3.72</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -2947,11 +2948,11 @@
       <c r="T34" s="5">
         <v>0.65</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="3">
         <v>-12.12</v>
       </c>
-      <c r="V34" s="6" t="s">
-        <v>14</v>
+      <c r="V34" s="3">
+        <v>-5.59</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
@@ -3015,10 +3016,10 @@
       <c r="T35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V35" s="4" t="s">
+      <c r="U35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V35" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3060,6 +3061,33 @@
         <v>14</v>
       </c>
       <c r="M36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V36" s="6" t="s">
         <v>14</v>
       </c>
     </row>
